--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Gdf1-Bmpr1a.xlsx
@@ -82,22 +82,22 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Neutrophils</t>
+  </si>
+  <si>
+    <t>Gdf1</t>
+  </si>
+  <si>
+    <t>Bmpr1a</t>
+  </si>
+  <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Gdf1</t>
-  </si>
-  <si>
-    <t>Bmpr1a</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Neutrophils</t>
   </si>
 </sst>
 </file>
@@ -549,10 +549,10 @@
         <v>0.004356</v>
       </c>
       <c r="I2">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J2">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N2">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O2">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P2">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q2">
-        <v>0.006308147207999999</v>
+        <v>0.009845837034</v>
       </c>
       <c r="R2">
-        <v>0.037848883248</v>
+        <v>0.059075022204</v>
       </c>
       <c r="S2">
-        <v>0.002669311198574853</v>
+        <v>0.002567392617203896</v>
       </c>
       <c r="T2">
-        <v>0.002343577920935373</v>
+        <v>0.002143738044349192</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -611,10 +611,10 @@
         <v>0.004356</v>
       </c>
       <c r="I3">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J3">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,10 +629,10 @@
         <v>72.555193</v>
       </c>
       <c r="O3">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P3">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q3">
         <v>0.035116713412</v>
@@ -641,10 +641,10 @@
         <v>0.316050420708</v>
       </c>
       <c r="S3">
-        <v>0.01485974142279327</v>
+        <v>0.009157006198974822</v>
       </c>
       <c r="T3">
-        <v>0.01956963387850404</v>
+        <v>0.01146896413283839</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -673,40 +673,40 @@
         <v>0.004356</v>
       </c>
       <c r="I4">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J4">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N4">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O4">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P4">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q4">
-        <v>0.000208285528</v>
+        <v>0.002311679348</v>
       </c>
       <c r="R4">
-        <v>0.001874569752</v>
+        <v>0.020805114132</v>
       </c>
       <c r="S4">
-        <v>8.813663886701677E-05</v>
+        <v>0.0006027916642234684</v>
       </c>
       <c r="T4">
-        <v>0.000116072124328071</v>
+        <v>0.0007549843066969764</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -735,10 +735,10 @@
         <v>0.004356</v>
       </c>
       <c r="I5">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J5">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N5">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O5">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P5">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q5">
-        <v>0.0379986948</v>
+        <v>0.03653070247200001</v>
       </c>
       <c r="R5">
-        <v>0.2279921688</v>
+        <v>0.219184214832</v>
       </c>
       <c r="S5">
-        <v>0.01607926039396068</v>
+        <v>0.009525716859217818</v>
       </c>
       <c r="T5">
-        <v>0.01411712492135643</v>
+        <v>0.007953844493423646</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,10 +797,10 @@
         <v>0.004356</v>
       </c>
       <c r="I6">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J6">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N6">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O6">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P6">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q6">
-        <v>0.006836867355999999</v>
+        <v>0.020328669856</v>
       </c>
       <c r="R6">
-        <v>0.06153180620399999</v>
+        <v>0.182958028704</v>
       </c>
       <c r="S6">
-        <v>0.002893040697179248</v>
+        <v>0.005300887748358989</v>
       </c>
       <c r="T6">
-        <v>0.003810008911229597</v>
+        <v>0.006639254155461653</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>0.004356</v>
       </c>
       <c r="I7">
-        <v>0.0372479605971987</v>
+        <v>0.0275626423690205</v>
       </c>
       <c r="J7">
-        <v>0.04082359446313599</v>
+        <v>0.02947285804177352</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N7">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O7">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P7">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q7">
-        <v>0.001556104528</v>
+        <v>0.001567911224</v>
       </c>
       <c r="R7">
-        <v>0.014004940752</v>
+        <v>0.014111201016</v>
       </c>
       <c r="S7">
-        <v>0.0006584702458236348</v>
+        <v>0.000408847281041512</v>
       </c>
       <c r="T7">
-        <v>0.0008671767067824808</v>
+        <v>0.0005120729090036616</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>0.020486</v>
       </c>
       <c r="I8">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J8">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N8">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O8">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P8">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q8">
-        <v>0.044500242322</v>
+        <v>0.06945654871849999</v>
       </c>
       <c r="R8">
-        <v>0.178000969288</v>
+        <v>0.277826194874</v>
       </c>
       <c r="S8">
-        <v>0.0188304095089547</v>
+        <v>0.01811143428238258</v>
       </c>
       <c r="T8">
-        <v>0.01102170277508771</v>
+        <v>0.01008186813051826</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>0.020486</v>
       </c>
       <c r="I9">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J9">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>72.555193</v>
       </c>
       <c r="O9">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P9">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q9">
         <v>0.2477276139663333</v>
@@ -1013,10 +1013,10 @@
         <v>1.486365683798</v>
       </c>
       <c r="S9">
-        <v>0.1048266745135479</v>
+        <v>0.06459725516260267</v>
       </c>
       <c r="T9">
-        <v>0.09203478412190859</v>
+        <v>0.05393783269635611</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,40 +1045,40 @@
         <v>0.020486</v>
       </c>
       <c r="I10">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J10">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N10">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O10">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P10">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q10">
-        <v>0.001469331035333333</v>
+        <v>0.01630752862366667</v>
       </c>
       <c r="R10">
-        <v>0.008815986212000001</v>
+        <v>0.097845171742</v>
       </c>
       <c r="S10">
-        <v>0.0006217517850653257</v>
+        <v>0.004252338165730707</v>
       </c>
       <c r="T10">
-        <v>0.0005458800594547434</v>
+        <v>0.003550644744489039</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>0.020486</v>
       </c>
       <c r="I11">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J11">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N11">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O11">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P11">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q11">
-        <v>0.2680582857</v>
+        <v>0.2577024692980001</v>
       </c>
       <c r="R11">
-        <v>1.0722331428</v>
+        <v>1.030809877192</v>
       </c>
       <c r="S11">
-        <v>0.1134296585505091</v>
+        <v>0.06719829048827004</v>
       </c>
       <c r="T11">
-        <v>0.06639196995842696</v>
+        <v>0.0374064412975842</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,7 +1154,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1169,10 +1169,10 @@
         <v>0.020486</v>
       </c>
       <c r="I12">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J12">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N12">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O12">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P12">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q12">
-        <v>0.04823004981233333</v>
+        <v>0.1434067254373333</v>
       </c>
       <c r="R12">
-        <v>0.289380298874</v>
+        <v>0.8604403526240001</v>
       </c>
       <c r="S12">
-        <v>0.02040868860964672</v>
+        <v>0.03739462342041399</v>
       </c>
       <c r="T12">
-        <v>0.01791823750125104</v>
+        <v>0.03122400381744431</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,7 +1216,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -1231,10 +1231,10 @@
         <v>0.020486</v>
       </c>
       <c r="I13">
-        <v>0.2627623005489713</v>
+        <v>0.1944381169324222</v>
       </c>
       <c r="J13">
-        <v>0.1919908531156575</v>
+        <v>0.1386090380724913</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N13">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O13">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P13">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q13">
-        <v>0.01097739578533333</v>
+        <v>0.01106068503266667</v>
       </c>
       <c r="R13">
-        <v>0.065864374712</v>
+        <v>0.066364110196</v>
       </c>
       <c r="S13">
-        <v>0.004645117581247584</v>
+        <v>0.002884175413022181</v>
       </c>
       <c r="T13">
-        <v>0.004078278699528445</v>
+        <v>0.002408247386099405</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H14">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I14">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J14">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>4.344454</v>
+        <v>6.780879499999999</v>
       </c>
       <c r="N14">
-        <v>8.688908</v>
+        <v>13.561759</v>
       </c>
       <c r="O14">
-        <v>0.07166328453363975</v>
+        <v>0.09314755032665376</v>
       </c>
       <c r="P14">
-        <v>0.05740743684517154</v>
+        <v>0.07273600820493056</v>
       </c>
       <c r="Q14">
-        <v>0.118547116298</v>
+        <v>0.2779143463074999</v>
       </c>
       <c r="R14">
-        <v>0.711282697788</v>
+        <v>1.667486077845</v>
       </c>
       <c r="S14">
-        <v>0.0501635638261102</v>
+        <v>0.07246872342706727</v>
       </c>
       <c r="T14">
-        <v>0.04404215614914845</v>
+        <v>0.0605104020300631</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H15">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I15">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J15">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>72.555193</v>
       </c>
       <c r="O15">
-        <v>0.3989410744788757</v>
+        <v>0.3322252662272683</v>
       </c>
       <c r="P15">
-        <v>0.4793706711978918</v>
+        <v>0.389136476570504</v>
       </c>
       <c r="Q15">
-        <v>0.6599378504636667</v>
+        <v>0.9912248617016667</v>
       </c>
       <c r="R15">
-        <v>5.939440654173</v>
+        <v>8.921023755315</v>
       </c>
       <c r="S15">
-        <v>0.2792546585425345</v>
+        <v>0.2584710048656908</v>
       </c>
       <c r="T15">
-        <v>0.3677662531974792</v>
+        <v>0.3237296797413095</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H16">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I16">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J16">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.1434473333333333</v>
+        <v>1.592065666666667</v>
       </c>
       <c r="N16">
-        <v>0.430342</v>
+        <v>4.776197</v>
       </c>
       <c r="O16">
-        <v>0.002366213812888463</v>
+        <v>0.02186987938794236</v>
       </c>
       <c r="P16">
-        <v>0.002843260762667162</v>
+        <v>0.02561625701948875</v>
       </c>
       <c r="Q16">
-        <v>0.003914247384666667</v>
+        <v>0.06525081134833333</v>
       </c>
       <c r="R16">
-        <v>0.035228226462</v>
+        <v>0.5872573021349999</v>
       </c>
       <c r="S16">
-        <v>0.001656325388956121</v>
+        <v>0.01701474955798819</v>
       </c>
       <c r="T16">
-        <v>0.002181308578884348</v>
+        <v>0.02131062796830274</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H17">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I17">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J17">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>26.1699</v>
+        <v>25.158886</v>
       </c>
       <c r="N17">
-        <v>52.3398</v>
+        <v>50.31777200000001</v>
       </c>
       <c r="O17">
-        <v>0.4316816313205064</v>
+        <v>0.3456024546443489</v>
       </c>
       <c r="P17">
-        <v>0.3458079845003433</v>
+        <v>0.2698701456828592</v>
       </c>
       <c r="Q17">
-        <v>0.7140980613</v>
+        <v>1.03113694271</v>
       </c>
       <c r="R17">
-        <v>4.2845883678</v>
+        <v>6.18682165626</v>
       </c>
       <c r="S17">
-        <v>0.3021727123760365</v>
+        <v>0.2688784472968611</v>
       </c>
       <c r="T17">
-        <v>0.2652988896205599</v>
+        <v>0.2245098598918513</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,7 +1526,7 @@
         <v>24</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -1535,16 +1535,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H18">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I18">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J18">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.708586333333333</v>
+        <v>14.00046133333333</v>
       </c>
       <c r="N18">
-        <v>14.125759</v>
+        <v>42.001384</v>
       </c>
       <c r="O18">
-        <v>0.07766977441972552</v>
+        <v>0.1923214645892228</v>
       </c>
       <c r="P18">
-        <v>0.09332859982895587</v>
+        <v>0.225266723235713</v>
       </c>
       <c r="Q18">
-        <v>0.1284831952776667</v>
+        <v>0.5738089077466667</v>
       </c>
       <c r="R18">
-        <v>1.156348757499</v>
+        <v>5.16428016972</v>
       </c>
       <c r="S18">
-        <v>0.05436804511289955</v>
+        <v>0.1496259534204498</v>
       </c>
       <c r="T18">
-        <v>0.07160035341647523</v>
+        <v>0.187403465262807</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,7 +1588,7 @@
         <v>24</v>
       </c>
       <c r="D19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -1597,16 +1597,16 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.027287</v>
+        <v>0.040985</v>
       </c>
       <c r="H19">
-        <v>0.081861</v>
+        <v>0.122955</v>
       </c>
       <c r="I19">
-        <v>0.69998973885383</v>
+        <v>0.7779992406985573</v>
       </c>
       <c r="J19">
-        <v>0.7671855524212066</v>
+        <v>0.8319181038857351</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>1.071697333333333</v>
+        <v>1.079828666666667</v>
       </c>
       <c r="N19">
-        <v>3.215092</v>
+        <v>3.239486</v>
       </c>
       <c r="O19">
-        <v>0.01767802143436428</v>
+        <v>0.01483338482456395</v>
       </c>
       <c r="P19">
-        <v>0.0212420468649704</v>
+        <v>0.01737438928650463</v>
       </c>
       <c r="Q19">
-        <v>0.02924340513466667</v>
+        <v>0.04425677790333333</v>
       </c>
       <c r="R19">
-        <v>0.263190646212</v>
+        <v>0.39831100113</v>
       </c>
       <c r="S19">
-        <v>0.01237443360729306</v>
+        <v>0.01154036213050025</v>
       </c>
       <c r="T19">
-        <v>0.01629659145865948</v>
+        <v>0.01445406899140156</v>
       </c>
     </row>
   </sheetData>
